--- a/biology/Botanique/Avicenniaceae/Avicenniaceae.xlsx
+++ b/biology/Botanique/Avicenniaceae/Avicenniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Avicenniacées (Avicenniaceae ) regroupe des plantes dicotylédones ; elle comprend 11 espèces du genre Avicennia. Ce sont des petits arbres et arbustes de la mangrove des côtes tropicales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Avicennia, nommé en mémoire de Avicenne, Alī ibn Sīnā (980-1037), philosophe et médecin médiéval persan.
 </t>
@@ -542,11 +556,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille n'est pas acceptée par la plupart des taxonomistes.
-La classification phylogénétique APG (1998)[1] accepte cette famille.
-En classification phylogénétique APG II (2003)[2] et classification phylogénétique APG III (2009)[3] cette famille est invalide et son genre Avicennia est incorporé dans la famille Acanthaceae (dans la sous-famille Avicennioideae selon NCBI  (6 Jul 2010)[4]).
+La classification phylogénétique APG (1998) accepte cette famille.
+En classification phylogénétique APG II (2003) et classification phylogénétique APG III (2009) cette famille est invalide et son genre Avicennia est incorporé dans la famille Acanthaceae (dans la sous-famille Avicennioideae selon NCBI  (6 Jul 2010)).
 </t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (6 Jul 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (6 Jul 2010) :
 famille Acanthaceae
 sous-famille Avicennioideae
 Avicennia
-Selon DELTA Angio           (6 Jul 2010)[5] :
+Selon DELTA Angio           (6 Jul 2010) :
 famille Avicenniaceae
 Avicennia</t>
         </is>
@@ -611,9 +629,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (6 Jul 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (6 Jul 2010) :
 famille Acanthaceae
 sous-famille Avicennioideae
 genre Avicennia
